--- a/Data/EC/NIT-9016134969.xlsx
+++ b/Data/EC/NIT-9016134969.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2F84350-1741-4A67-A222-664173057CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{707E93E8-3D35-425F-9BEA-7474B59C9B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22B03993-4473-4E73-A54E-D6AD3881B9FB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D70D3992-FF2A-4631-9F8A-33281B5227A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,46 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143384053</t>
+  </si>
+  <si>
+    <t>CARLOS JOSE HENRIQUEZ GUERRERO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>1049938952</t>
   </si>
   <si>
     <t>PAOLA ESTER NISPERUZA ESTRADA</t>
   </si>
   <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>2407</t>
   </si>
   <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1047431464</t>
+  </si>
+  <si>
+    <t>REYNA ISABEL MIRANDA JARABA</t>
+  </si>
+  <si>
+    <t>1002259171</t>
+  </si>
+  <si>
+    <t>KEYLA JUDITH MOSQUERA BELTRAN</t>
+  </si>
+  <si>
+    <t>1081930404</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA SABALZA SIERRA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9415A6-DB48-E28E-5435-94E91EC22BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D114882-8DDF-1B85-A055-A448DA8503D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F631CCA4-518D-4DF9-9F6F-98DBEF6E6DB9}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926A8A81-3694-4A10-A4C6-16B08A5C34A8}">
+  <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -881,7 +908,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -894,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>634800</v>
+        <v>1609184</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1176,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>52900</v>
@@ -1199,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>52900</v>
@@ -1222,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>52900</v>
@@ -1245,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>52900</v>
@@ -1268,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>52900</v>
@@ -1287,56 +1314,447 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="24">
-        <v>52900</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1322500</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="F31" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="18">
+        <v>52900</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1322500</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="18">
+        <v>78188</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1046000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18">
+        <v>63336</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1583400</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="E37" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="18">
+        <v>57820</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1445500</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="24">
+        <v>57820</v>
+      </c>
+      <c r="G44" s="24">
+        <v>1445500</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="32"/>
+      <c r="H50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016134969.xlsx
+++ b/Data/EC/NIT-9016134969.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{707E93E8-3D35-425F-9BEA-7474B59C9B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99B15A5-6BD2-474A-B755-4392D3878610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D70D3992-FF2A-4631-9F8A-33281B5227A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{662731EE-9EA5-472E-B857-CD7E8427B1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,73 +65,52 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1143384053</t>
-  </si>
-  <si>
-    <t>CARLOS JOSE HENRIQUEZ GUERRERO</t>
+    <t>1049938952</t>
+  </si>
+  <si>
+    <t>PAOLA ESTER NISPERUZA ESTRADA</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1049938952</t>
-  </si>
-  <si>
-    <t>PAOLA ESTER NISPERUZA ESTRADA</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>1047431464</t>
-  </si>
-  <si>
-    <t>REYNA ISABEL MIRANDA JARABA</t>
-  </si>
-  <si>
-    <t>1002259171</t>
-  </si>
-  <si>
-    <t>KEYLA JUDITH MOSQUERA BELTRAN</t>
-  </si>
-  <si>
-    <t>1081930404</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA SABALZA SIERRA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D114882-8DDF-1B85-A055-A448DA8503D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8C55EA-47E4-EFBA-D5F0-2BB212E79064}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926A8A81-3694-4A10-A4C6-16B08A5C34A8}">
-  <dimension ref="B2:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C2B9E-AABE-4B87-BC8F-81FBF92154F1}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -908,7 +887,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -921,7 +900,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +945,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1609184</v>
+        <v>740600</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +993,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1203,13 +1182,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="18">
         <v>52900</v>
@@ -1226,13 +1205,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>52900</v>
@@ -1249,13 +1228,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52900</v>
@@ -1272,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52900</v>
@@ -1295,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52900</v>
@@ -1318,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52900</v>
@@ -1341,13 +1320,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>52900</v>
@@ -1360,401 +1339,56 @@
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="C29" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="24">
         <v>52900</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="24">
         <v>1322500</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="18">
-        <v>52900</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1322500</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="18">
-        <v>52900</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1322500</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="18">
-        <v>52900</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1322500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="18">
-        <v>52900</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1322500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="18">
-        <v>52900</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1322500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="B34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="18">
-        <v>78188</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1046000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="18">
-        <v>63336</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1583400</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="18">
-        <v>57820</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1445500</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="24">
-        <v>57820</v>
-      </c>
-      <c r="G44" s="24">
-        <v>1445500</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="B35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9016134969.xlsx
+++ b/Data/EC/NIT-9016134969.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D99B15A5-6BD2-474A-B755-4392D3878610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2CD489-079D-4C23-A589-1CF735B22611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{662731EE-9EA5-472E-B857-CD7E8427B1A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5BB4C77-C923-4F39-8CAB-CBCC155AF849}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
+  </si>
+  <si>
+    <t>1047431464</t>
+  </si>
+  <si>
+    <t>REYNA ISABEL MIRANDA JARABA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -154,7 +163,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -224,7 +231,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,29 +427,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,19 +468,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E8C55EA-47E4-EFBA-D5F0-2BB212E79064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F0B8928-458C-3014-4C93-D2F17649B816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,80 +890,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9C2B9E-AABE-4B87-BC8F-81FBF92154F1}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC495D7-C33F-4069-896B-631764CF6AD9}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -958,13 +973,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9016134969</v>
       </c>
@@ -974,15 +989,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>740600</v>
+        <v>871688</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,27 +1005,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1030,16 +1045,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1049,20 +1064,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>52900</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1322500</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1072,20 +1087,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>52900</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1322500</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1095,20 +1110,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>52900</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1322500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1118,20 +1133,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>52900</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1322500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1141,20 +1156,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>52900</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1322500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1164,20 +1179,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>52900</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1322500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1187,20 +1202,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>52900</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1322500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1210,20 +1225,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>52900</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1322500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1233,20 +1248,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>52900</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1322500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1256,20 +1271,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>52900</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1322500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1279,20 +1294,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>52900</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1322500</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,20 +1317,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>52900</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1322500</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1325,70 +1340,116 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>52900</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1322500</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="19">
         <v>52900</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="19">
         <v>1322500</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="19">
+        <v>52900</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1322500</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="26">
+        <v>78188</v>
+      </c>
+      <c r="G31" s="26">
+        <v>1954700</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="H36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="H37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
